--- a/shopee/好的定价商品/工作簿1.xlsx
+++ b/shopee/好的定价商品/工作簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangli/Desktop/vue-pra/shopee/好的定价商品/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14EA0B40-2E54-3F4F-BB98-A927C8BF6F67}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B4E838C-34EE-A347-8077-5F25E41B8C6F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17000" xr2:uid="{6CDBDBB2-B300-D846-B6E0-592AEA8228C8}"/>
+    <workbookView xWindow="7860" yWindow="2220" windowWidth="28240" windowHeight="17000" xr2:uid="{6CDBDBB2-B300-D846-B6E0-592AEA8228C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,24 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>【現貨當天發 滿299免運】雙面加厚珊瑚絨家用百潔布不沾粘油懶人抹布廚房洗碗巾吸水清潔</t>
+  </si>
+  <si>
+    <t>【現貨&amp;免運】*小米米兔兒童聲波電動牙刷頭替換刷頭3歲6歲以上小孩寶寶軟毛刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🎉滿額免運🎉多功能硅膠洗碗刷不易沾油抹布廚房刷鍋碗家用清潔海綿百潔布神器</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -41,6 +56,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,8 +86,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -383,12 +407,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF26831B-F17B-6D4D-9C7A-02C93CDA235A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="60" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="153.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="51.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="60" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="60" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="60" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="60" customHeight="1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" ht="60" customHeight="1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" ht="60" customHeight="1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" ht="60" customHeight="1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" ht="60" customHeight="1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" ht="60" customHeight="1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" ht="60" customHeight="1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" ht="60" customHeight="1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" ht="60" customHeight="1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" ht="60" customHeight="1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" ht="60" customHeight="1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" ht="60" customHeight="1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" ht="60" customHeight="1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="60" customHeight="1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" ht="60" customHeight="1">
+      <c r="A18" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
